--- a/part3/Summary.xlsx
+++ b/part3/Summary.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +433,15 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>80000</v>
+      </c>
+      <c r="E3">
+        <v>0.96624374999999896</v>
+      </c>
       <c r="F3">
         <v>0.92300000000000004</v>
       </c>
@@ -447,6 +456,9 @@
       <c r="D4">
         <v>80000</v>
       </c>
+      <c r="E4">
+        <v>0.98028437499999999</v>
+      </c>
       <c r="F4">
         <v>0.9204</v>
       </c>
@@ -460,6 +472,9 @@
       </c>
       <c r="D5">
         <v>80000</v>
+      </c>
+      <c r="E5">
+        <v>0.99095312499999999</v>
       </c>
       <c r="F5">
         <v>0.91648750000000001</v>

--- a/part3/Summary.xlsx
+++ b/part3/Summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Passive/Aggressive Classifier </t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Average Validation Accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Forest Classifier </t>
-  </si>
-  <si>
-    <t>Number of Estimators</t>
   </si>
 </sst>
 </file>
@@ -394,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F35"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,183 +644,6 @@
         <v>0.9044875</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>80000</v>
-      </c>
-      <c r="F23">
-        <v>0.83223749999999896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>80000</v>
-      </c>
-      <c r="F25">
-        <v>0.86956250000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>80000</v>
-      </c>
-      <c r="F27">
-        <v>0.87844999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>60</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>80000</v>
-      </c>
-      <c r="F29">
-        <v>0.88261249999999902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>80</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>90</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>80000</v>
-      </c>
-      <c r="F32">
-        <v>0.88407499999999895</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>250</v>
-      </c>
-      <c r="F35">
-        <v>0.88866249999999902</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/part3/Summary.xlsx
+++ b/part3/Summary.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
